--- a/data_out2020/group scores (single year).xlsx
+++ b/data_out2020/group scores (single year).xlsx
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>71.990706587772</v>
+        <v>71.9907065875305</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>39.8918047511635</v>
+        <v>39.8918047507809</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>44.1961939937813</v>
+        <v>44.1961939934119</v>
       </c>
     </row>
     <row r="5">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>54.7762879254795</v>
+        <v>54.7762879250828</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>53.281246874329</v>
+        <v>53.2812468740011</v>
       </c>
     </row>
     <row r="7">
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>49.9494564054928</v>
+        <v>49.9494564051235</v>
       </c>
     </row>
     <row r="8">
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>59.5616009696257</v>
+        <v>59.5616009693415</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>80.0821139879956</v>
+        <v>80.0821139880873</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2359919839459</v>
+        <v>33.2359919837943</v>
       </c>
     </row>
     <row r="11">
@@ -749,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>58.1821366178496</v>
+        <v>58.1821366175504</v>
       </c>
     </row>
     <row r="12">
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0160782210378</v>
+        <v>3.01607822055461</v>
       </c>
     </row>
     <row r="13">
@@ -771,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>65.7248676027903</v>
+        <v>65.7248676024991</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>58.1057938024917</v>
+        <v>58.1057938026577</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>47.6911873080718</v>
+        <v>47.6911873075661</v>
       </c>
     </row>
     <row r="16">
@@ -804,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2547349528761</v>
+        <v>46.2547349528614</v>
       </c>
     </row>
     <row r="17">
@@ -815,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>56.6121786588136</v>
+        <v>56.6121786583352</v>
       </c>
     </row>
     <row r="18">
@@ -826,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>55.1777494587926</v>
+        <v>55.1777494586439</v>
       </c>
     </row>
     <row r="19">
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>43.9955197416029</v>
+        <v>43.9955197416203</v>
       </c>
     </row>
     <row r="20">
@@ -848,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>29.2547630062168</v>
+        <v>29.2547630062044</v>
       </c>
     </row>
     <row r="21">
@@ -859,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>42.8882151225584</v>
+        <v>42.8882151224122</v>
       </c>
     </row>
     <row r="22">
@@ -870,7 +870,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6352760919908</v>
+        <v>31.6352760916774</v>
       </c>
     </row>
     <row r="23">
@@ -881,7 +881,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>49.3820232947084</v>
+        <v>49.3820232943293</v>
       </c>
     </row>
     <row r="24">
@@ -892,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>38.9523023165756</v>
+        <v>38.9523023162661</v>
       </c>
     </row>
     <row r="25">
@@ -903,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>38.9419825883394</v>
+        <v>38.9419825880038</v>
       </c>
     </row>
     <row r="26">
@@ -914,7 +914,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>28.6659685435043</v>
+        <v>28.6659685435057</v>
       </c>
     </row>
     <row r="27">
@@ -925,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>56.0645337437204</v>
+        <v>56.0645337436292</v>
       </c>
     </row>
     <row r="28">
@@ -936,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>24.6808528132997</v>
+        <v>24.6808528126769</v>
       </c>
     </row>
     <row r="29">
@@ -947,7 +947,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>29.8220688565526</v>
+        <v>29.8220688559233</v>
       </c>
     </row>
     <row r="30">
@@ -958,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>58.2046118948899</v>
+        <v>58.2046118947641</v>
       </c>
     </row>
     <row r="31">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>39.4286162280142</v>
+        <v>39.4286162278817</v>
       </c>
     </row>
     <row r="32">
@@ -980,7 +980,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="n">
-        <v>48.7383500918833</v>
+        <v>48.7383500920963</v>
       </c>
     </row>
     <row r="33">
@@ -991,7 +991,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>71.9428808195244</v>
+        <v>71.9428808193951</v>
       </c>
     </row>
     <row r="34">
@@ -1002,7 +1002,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>60.5421457275707</v>
+        <v>60.5421457271112</v>
       </c>
     </row>
     <row r="35">
@@ -1013,7 +1013,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v>35.1125774720959</v>
+        <v>35.1125774721088</v>
       </c>
     </row>
     <row r="36">
@@ -1024,7 +1024,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>58.3872653489221</v>
+        <v>58.3872653486268</v>
       </c>
     </row>
     <row r="37">
@@ -1035,7 +1035,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>15.636401960544</v>
+        <v>15.6364019598296</v>
       </c>
     </row>
     <row r="38">
@@ -1046,7 +1046,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="n">
-        <v>41.9815905699035</v>
+        <v>41.9815905699945</v>
       </c>
     </row>
     <row r="39">
@@ -1057,7 +1057,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>29.2886600986537</v>
+        <v>29.2886600977692</v>
       </c>
     </row>
     <row r="40">
@@ -1068,7 +1068,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v>29.1187715756635</v>
+        <v>29.1187715754133</v>
       </c>
     </row>
     <row r="41">
@@ -1079,7 +1079,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v>30.097360617057</v>
+        <v>30.0973606164734</v>
       </c>
     </row>
     <row r="42">
@@ -1090,7 +1090,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="n">
-        <v>49.5979525019377</v>
+        <v>49.5979525014119</v>
       </c>
     </row>
     <row r="43">
@@ -1101,7 +1101,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v>53.0991800251325</v>
+        <v>53.0991800247426</v>
       </c>
     </row>
     <row r="44">
@@ -1112,7 +1112,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="n">
-        <v>44.9182547261063</v>
+        <v>44.9182547259985</v>
       </c>
     </row>
     <row r="45">
@@ -1123,7 +1123,7 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>58.2059416713689</v>
+        <v>58.2059416712816</v>
       </c>
     </row>
     <row r="46">
@@ -1134,7 +1134,7 @@
         <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v>36.9073153584321</v>
+        <v>36.9073153578422</v>
       </c>
     </row>
     <row r="47">
@@ -1145,7 +1145,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>52.2275714721845</v>
+        <v>52.2275714721688</v>
       </c>
     </row>
     <row r="48">
@@ -1156,7 +1156,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>22.49829908199</v>
+        <v>22.4982990812639</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="n">
-        <v>39.7466227530398</v>
+        <v>39.7466227529263</v>
       </c>
     </row>
     <row r="50">
@@ -1178,7 +1178,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>30.328788147598</v>
+        <v>30.3287881469977</v>
       </c>
     </row>
     <row r="51">
@@ -1189,7 +1189,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>30.328788147598</v>
+        <v>30.3287881469977</v>
       </c>
     </row>
     <row r="52">
@@ -1200,7 +1200,7 @@
         <v>54</v>
       </c>
       <c r="C52" t="n">
-        <v>30.0043171476516</v>
+        <v>30.0043171470449</v>
       </c>
     </row>
     <row r="53">
@@ -1211,7 +1211,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>26.3712273121373</v>
+        <v>26.3712273114771</v>
       </c>
     </row>
     <row r="54">
@@ -1222,7 +1222,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="n">
-        <v>26.3712273121373</v>
+        <v>26.3712273114771</v>
       </c>
     </row>
     <row r="55">
@@ -1233,7 +1233,7 @@
         <v>57</v>
       </c>
       <c r="C55" t="n">
-        <v>26.3712273121373</v>
+        <v>26.3712273114771</v>
       </c>
     </row>
     <row r="56">
@@ -1244,7 +1244,7 @@
         <v>58</v>
       </c>
       <c r="C56" t="n">
-        <v>65.4100436965828</v>
+        <v>65.4100436964249</v>
       </c>
     </row>
     <row r="57">
@@ -1255,7 +1255,7 @@
         <v>59</v>
       </c>
       <c r="C57" t="n">
-        <v>57.311793570034</v>
+        <v>57.3117935699759</v>
       </c>
     </row>
     <row r="58">
@@ -1266,7 +1266,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="n">
-        <v>14.5985691759943</v>
+        <v>14.5985691745008</v>
       </c>
     </row>
     <row r="59">
@@ -1277,7 +1277,7 @@
         <v>61</v>
       </c>
       <c r="C59" t="n">
-        <v>32.64659565513</v>
+        <v>32.6465956548179</v>
       </c>
     </row>
     <row r="60">
@@ -1288,7 +1288,7 @@
         <v>62</v>
       </c>
       <c r="C60" t="n">
-        <v>38.9059747885948</v>
+        <v>38.9059747882845</v>
       </c>
     </row>
     <row r="61">
@@ -1299,7 +1299,7 @@
         <v>63</v>
       </c>
       <c r="C61" t="n">
-        <v>54.4286948945389</v>
+        <v>54.4286948939279</v>
       </c>
     </row>
     <row r="62">
@@ -1310,7 +1310,7 @@
         <v>64</v>
       </c>
       <c r="C62" t="n">
-        <v>57.1636758743456</v>
+        <v>57.1636758741955</v>
       </c>
     </row>
     <row r="63">
@@ -1321,7 +1321,7 @@
         <v>65</v>
       </c>
       <c r="C63" t="n">
-        <v>56.2443023198039</v>
+        <v>56.244302319499</v>
       </c>
     </row>
     <row r="64">
@@ -1332,7 +1332,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="n">
-        <v>29.044460032525</v>
+        <v>29.0444600318711</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="n">
-        <v>29.6768991328081</v>
+        <v>29.6768991322098</v>
       </c>
     </row>
     <row r="66">
@@ -1354,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="C66" t="n">
-        <v>29.7535214199727</v>
+        <v>29.753521419381</v>
       </c>
     </row>
     <row r="67">
@@ -1365,7 +1365,7 @@
         <v>69</v>
       </c>
       <c r="C67" t="n">
-        <v>29.8899688244683</v>
+        <v>29.8899688238661</v>
       </c>
     </row>
     <row r="68">
@@ -1376,7 +1376,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="n">
-        <v>58.2046118948899</v>
+        <v>58.2046118947641</v>
       </c>
     </row>
     <row r="69">
@@ -1387,7 +1387,7 @@
         <v>71</v>
       </c>
       <c r="C69" t="n">
-        <v>38.9735500565748</v>
+        <v>38.9735500562664</v>
       </c>
     </row>
     <row r="70">
@@ -1398,7 +1398,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="n">
-        <v>65.1519665711395</v>
+        <v>65.1519665711808</v>
       </c>
     </row>
     <row r="71">
@@ -1409,7 +1409,7 @@
         <v>73</v>
       </c>
       <c r="C71" t="n">
-        <v>41.5386170072098</v>
+        <v>41.5386170071318</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1420,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="n">
-        <v>47.5566077612043</v>
+        <v>47.5566077609864</v>
       </c>
     </row>
     <row r="73">
@@ -1431,7 +1431,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="n">
-        <v>47.5566077612043</v>
+        <v>47.5566077609864</v>
       </c>
     </row>
     <row r="74">
@@ -1442,7 +1442,7 @@
         <v>76</v>
       </c>
       <c r="C74" t="n">
-        <v>47.5007266487592</v>
+        <v>47.5007266485439</v>
       </c>
     </row>
     <row r="75">
@@ -1453,7 +1453,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="n">
-        <v>35.8785545928454</v>
+        <v>35.8785545924956</v>
       </c>
     </row>
     <row r="76">
@@ -1464,7 +1464,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="n">
-        <v>28.9987363175343</v>
+        <v>28.9987363174611</v>
       </c>
     </row>
     <row r="77">
@@ -1475,7 +1475,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="n">
-        <v>36.3615844981538</v>
+        <v>36.3615844978039</v>
       </c>
     </row>
     <row r="78">
@@ -1486,7 +1486,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="n">
-        <v>27.9317460845215</v>
+        <v>27.9317460838488</v>
       </c>
     </row>
     <row r="79">
@@ -1497,7 +1497,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="n">
-        <v>17.7629493382596</v>
+        <v>17.7629493376316</v>
       </c>
     </row>
     <row r="80">
@@ -1508,7 +1508,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="n">
-        <v>59.4578506137779</v>
+        <v>59.4578506135729</v>
       </c>
     </row>
     <row r="81">
@@ -1519,7 +1519,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="n">
-        <v>33.7305210166674</v>
+        <v>33.7305210162394</v>
       </c>
     </row>
     <row r="82">
@@ -1530,7 +1530,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="n">
-        <v>42.4811402922513</v>
+        <v>42.481140292375</v>
       </c>
     </row>
     <row r="83">
@@ -1541,7 +1541,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="n">
-        <v>42.4811402922513</v>
+        <v>42.481140292375</v>
       </c>
     </row>
     <row r="84">
@@ -1552,7 +1552,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="n">
-        <v>54.6669325511224</v>
+        <v>54.6669325508619</v>
       </c>
     </row>
     <row r="85">
@@ -1563,7 +1563,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="n">
-        <v>54.7283273124777</v>
+        <v>54.7283273122184</v>
       </c>
     </row>
     <row r="86">
@@ -1574,7 +1574,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="n">
-        <v>54.6669325511224</v>
+        <v>54.6669325508619</v>
       </c>
     </row>
     <row r="87">
@@ -1585,7 +1585,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="n">
-        <v>29.8620196807198</v>
+        <v>29.8620196800811</v>
       </c>
     </row>
     <row r="88">
@@ -1596,7 +1596,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>38.9523023165756</v>
+        <v>38.9523023162661</v>
       </c>
     </row>
     <row r="89">
@@ -5435,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="C437" t="n">
-        <v>73.2000437638997</v>
+        <v>73.200043764164</v>
       </c>
     </row>
     <row r="438">
@@ -5446,7 +5446,7 @@
         <v>5</v>
       </c>
       <c r="C438" t="n">
-        <v>62.7305593895215</v>
+        <v>62.7305593904845</v>
       </c>
     </row>
     <row r="439">
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
       <c r="C439" t="n">
-        <v>47.6169402620781</v>
+        <v>47.6169402631438</v>
       </c>
     </row>
     <row r="440">
@@ -5468,7 +5468,7 @@
         <v>7</v>
       </c>
       <c r="C440" t="n">
-        <v>56.3743898726574</v>
+        <v>56.3743898733349</v>
       </c>
     </row>
     <row r="441">
@@ -5479,7 +5479,7 @@
         <v>8</v>
       </c>
       <c r="C441" t="n">
-        <v>50.6785773842174</v>
+        <v>50.6785773850254</v>
       </c>
     </row>
     <row r="442">
@@ -5490,7 +5490,7 @@
         <v>9</v>
       </c>
       <c r="C442" t="n">
-        <v>51.3504530580315</v>
+        <v>51.3504530589036</v>
       </c>
     </row>
     <row r="443">
@@ -5501,7 +5501,7 @@
         <v>10</v>
       </c>
       <c r="C443" t="n">
-        <v>61.6635590379086</v>
+        <v>61.6635590385865</v>
       </c>
     </row>
     <row r="444">
@@ -5512,7 +5512,7 @@
         <v>11</v>
       </c>
       <c r="C444" t="n">
-        <v>79.365005836638</v>
+        <v>79.3650058373954</v>
       </c>
     </row>
     <row r="445">
@@ -5523,7 +5523,7 @@
         <v>12</v>
       </c>
       <c r="C445" t="n">
-        <v>35.1533998793055</v>
+        <v>35.1533998812795</v>
       </c>
     </row>
     <row r="446">
@@ -5534,7 +5534,7 @@
         <v>13</v>
       </c>
       <c r="C446" t="n">
-        <v>59.8076851586234</v>
+        <v>59.8076851593303</v>
       </c>
     </row>
     <row r="447">
@@ -5545,7 +5545,7 @@
         <v>14</v>
       </c>
       <c r="C447" t="n">
-        <v>0.844774848656677</v>
+        <v>0.84477485097137</v>
       </c>
     </row>
     <row r="448">
@@ -5556,7 +5556,7 @@
         <v>15</v>
       </c>
       <c r="C448" t="n">
-        <v>52.9859295737127</v>
+        <v>52.9859295743166</v>
       </c>
     </row>
     <row r="449">
@@ -5567,7 +5567,7 @@
         <v>16</v>
       </c>
       <c r="C449" t="n">
-        <v>67.1912597667229</v>
+        <v>67.1912597682451</v>
       </c>
     </row>
     <row r="450">
@@ -5578,7 +5578,7 @@
         <v>17</v>
       </c>
       <c r="C450" t="n">
-        <v>48.6916640280376</v>
+        <v>48.6916640287188</v>
       </c>
     </row>
     <row r="451">
@@ -5589,7 +5589,7 @@
         <v>18</v>
       </c>
       <c r="C451" t="n">
-        <v>48.9092433849847</v>
+        <v>48.9092433867625</v>
       </c>
     </row>
     <row r="452">
@@ -5600,7 +5600,7 @@
         <v>19</v>
       </c>
       <c r="C452" t="n">
-        <v>43.5255463038174</v>
+        <v>43.525546304341</v>
       </c>
     </row>
     <row r="453">
@@ -5611,7 +5611,7 @@
         <v>20</v>
       </c>
       <c r="C453" t="n">
-        <v>63.6969555109335</v>
+        <v>63.696955512095</v>
       </c>
     </row>
     <row r="454">
@@ -5622,7 +5622,7 @@
         <v>21</v>
       </c>
       <c r="C454" t="n">
-        <v>48.4362054445266</v>
+        <v>48.4362054464406</v>
       </c>
     </row>
     <row r="455">
@@ -5633,7 +5633,7 @@
         <v>22</v>
       </c>
       <c r="C455" t="n">
-        <v>39.6032356380075</v>
+        <v>39.6032356403555</v>
       </c>
     </row>
     <row r="456">
@@ -5644,7 +5644,7 @@
         <v>23</v>
       </c>
       <c r="C456" t="n">
-        <v>44.4452058407764</v>
+        <v>44.4452058423942</v>
       </c>
     </row>
     <row r="457">
@@ -5655,7 +5655,7 @@
         <v>24</v>
       </c>
       <c r="C457" t="n">
-        <v>45.015029546386</v>
+        <v>45.0150295479327</v>
       </c>
     </row>
     <row r="458">
@@ -5666,7 +5666,7 @@
         <v>25</v>
       </c>
       <c r="C458" t="n">
-        <v>54.6108107203489</v>
+        <v>54.6108107212446</v>
       </c>
     </row>
     <row r="459">
@@ -5677,7 +5677,7 @@
         <v>26</v>
       </c>
       <c r="C459" t="n">
-        <v>49.0922818806332</v>
+        <v>49.0922818819484</v>
       </c>
     </row>
     <row r="460">
@@ -5688,7 +5688,7 @@
         <v>27</v>
       </c>
       <c r="C460" t="n">
-        <v>48.3624121791231</v>
+        <v>48.3624121803342</v>
       </c>
     </row>
     <row r="461">
@@ -5699,7 +5699,7 @@
         <v>28</v>
       </c>
       <c r="C461" t="n">
-        <v>40.5713074981212</v>
+        <v>40.5713075004681</v>
       </c>
     </row>
     <row r="462">
@@ -5710,7 +5710,7 @@
         <v>29</v>
       </c>
       <c r="C462" t="n">
-        <v>62.3323968717122</v>
+        <v>62.3323968728461</v>
       </c>
     </row>
     <row r="463">
@@ -5721,7 +5721,7 @@
         <v>30</v>
       </c>
       <c r="C463" t="n">
-        <v>47.0739719072454</v>
+        <v>47.0739719083385</v>
       </c>
     </row>
     <row r="464">
@@ -5732,7 +5732,7 @@
         <v>31</v>
       </c>
       <c r="C464" t="n">
-        <v>54.1217216720602</v>
+        <v>54.1217216728499</v>
       </c>
     </row>
     <row r="465">
@@ -5743,7 +5743,7 @@
         <v>32</v>
       </c>
       <c r="C465" t="n">
-        <v>60.0117186176304</v>
+        <v>60.0117186186614</v>
       </c>
     </row>
     <row r="466">
@@ -5754,7 +5754,7 @@
         <v>33</v>
       </c>
       <c r="C466" t="n">
-        <v>41.1012164141168</v>
+        <v>41.1012164159031</v>
       </c>
     </row>
     <row r="467">
@@ -5765,7 +5765,7 @@
         <v>34</v>
       </c>
       <c r="C467" t="n">
-        <v>40.63090575719</v>
+        <v>40.6309057594795</v>
       </c>
     </row>
     <row r="468">
@@ -5776,7 +5776,7 @@
         <v>35</v>
       </c>
       <c r="C468" t="n">
-        <v>73.9888608784649</v>
+        <v>73.9888608789761</v>
       </c>
     </row>
     <row r="469">
@@ -5787,7 +5787,7 @@
         <v>36</v>
       </c>
       <c r="C469" t="n">
-        <v>71.5163804950044</v>
+        <v>71.5163804953351</v>
       </c>
     </row>
     <row r="470">
@@ -5798,7 +5798,7 @@
         <v>37</v>
       </c>
       <c r="C470" t="n">
-        <v>55.7993408996208</v>
+        <v>55.799340901785</v>
       </c>
     </row>
     <row r="471">
@@ -5809,7 +5809,7 @@
         <v>38</v>
       </c>
       <c r="C471" t="n">
-        <v>78.9705663749965</v>
+        <v>78.9705663754521</v>
       </c>
     </row>
     <row r="472">
@@ -5820,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="C472" t="n">
-        <v>5.02494227656749</v>
+        <v>5.02494227798262</v>
       </c>
     </row>
     <row r="473">
@@ -5831,7 +5831,7 @@
         <v>40</v>
       </c>
       <c r="C473" t="n">
-        <v>43.0788513399643</v>
+        <v>43.0788513421326</v>
       </c>
     </row>
     <row r="474">
@@ -5842,7 +5842,7 @@
         <v>41</v>
       </c>
       <c r="C474" t="n">
-        <v>32.1541267202224</v>
+        <v>32.1541267207939</v>
       </c>
     </row>
     <row r="475">
@@ -5853,7 +5853,7 @@
         <v>42</v>
       </c>
       <c r="C475" t="n">
-        <v>29.8364119641312</v>
+        <v>29.836411966064</v>
       </c>
     </row>
     <row r="476">
@@ -5864,7 +5864,7 @@
         <v>43</v>
       </c>
       <c r="C476" t="n">
-        <v>52.9776966517379</v>
+        <v>52.9776966526599</v>
       </c>
     </row>
     <row r="477">
@@ -5875,7 +5875,7 @@
         <v>44</v>
       </c>
       <c r="C477" t="n">
-        <v>37.2785493375168</v>
+        <v>37.2785493381867</v>
       </c>
     </row>
     <row r="478">
@@ -5886,7 +5886,7 @@
         <v>45</v>
       </c>
       <c r="C478" t="n">
-        <v>55.2684561724003</v>
+        <v>55.2684561730955</v>
       </c>
     </row>
     <row r="479">
@@ -5897,7 +5897,7 @@
         <v>46</v>
       </c>
       <c r="C479" t="n">
-        <v>59.5213440765723</v>
+        <v>59.5213440781425</v>
       </c>
     </row>
     <row r="480">
@@ -5908,7 +5908,7 @@
         <v>47</v>
       </c>
       <c r="C480" t="n">
-        <v>49.4060058894483</v>
+        <v>49.406005890666</v>
       </c>
     </row>
     <row r="481">
@@ -5919,7 +5919,7 @@
         <v>48</v>
       </c>
       <c r="C481" t="n">
-        <v>41.3785620242137</v>
+        <v>41.3785620250801</v>
       </c>
     </row>
     <row r="482">
@@ -5930,7 +5930,7 @@
         <v>49</v>
       </c>
       <c r="C482" t="n">
-        <v>65.4618015062044</v>
+        <v>65.4618015077332</v>
       </c>
     </row>
     <row r="483">
@@ -5941,7 +5941,7 @@
         <v>50</v>
       </c>
       <c r="C483" t="n">
-        <v>15.8558910844007</v>
+        <v>15.8558910855625</v>
       </c>
     </row>
     <row r="484">
@@ -5952,7 +5952,7 @@
         <v>51</v>
       </c>
       <c r="C484" t="n">
-        <v>44.4011513800865</v>
+        <v>44.401151381871</v>
       </c>
     </row>
     <row r="485">
@@ -5963,7 +5963,7 @@
         <v>52</v>
       </c>
       <c r="C485" t="n">
-        <v>54.1180206990908</v>
+        <v>54.1180206999304</v>
       </c>
     </row>
     <row r="486">
@@ -5974,7 +5974,7 @@
         <v>53</v>
       </c>
       <c r="C486" t="n">
-        <v>54.1180206990908</v>
+        <v>54.1180206999304</v>
       </c>
     </row>
     <row r="487">
@@ -5985,7 +5985,7 @@
         <v>54</v>
       </c>
       <c r="C487" t="n">
-        <v>53.7026552666669</v>
+        <v>53.7026552675064</v>
       </c>
     </row>
     <row r="488">
@@ -5996,7 +5996,7 @@
         <v>55</v>
       </c>
       <c r="C488" t="n">
-        <v>46.9211818070462</v>
+        <v>46.9211818079694</v>
       </c>
     </row>
     <row r="489">
@@ -6007,7 +6007,7 @@
         <v>56</v>
       </c>
       <c r="C489" t="n">
-        <v>46.9211818070462</v>
+        <v>46.9211818079694</v>
       </c>
     </row>
     <row r="490">
@@ -6018,7 +6018,7 @@
         <v>57</v>
       </c>
       <c r="C490" t="n">
-        <v>46.9211818070462</v>
+        <v>46.9211818079694</v>
       </c>
     </row>
     <row r="491">
@@ -6029,7 +6029,7 @@
         <v>58</v>
       </c>
       <c r="C491" t="n">
-        <v>60.2606236565155</v>
+        <v>60.2606236573225</v>
       </c>
     </row>
     <row r="492">
@@ -6040,7 +6040,7 @@
         <v>59</v>
       </c>
       <c r="C492" t="n">
-        <v>57.543698124374</v>
+        <v>57.5436981255823</v>
       </c>
     </row>
     <row r="493">
@@ -6051,7 +6051,7 @@
         <v>60</v>
       </c>
       <c r="C493" t="n">
-        <v>19.9764567607411</v>
+        <v>19.9764567605194</v>
       </c>
     </row>
     <row r="494">
@@ -6062,7 +6062,7 @@
         <v>61</v>
       </c>
       <c r="C494" t="n">
-        <v>46.258892951685</v>
+        <v>46.2588929532007</v>
       </c>
     </row>
     <row r="495">
@@ -6073,7 +6073,7 @@
         <v>62</v>
       </c>
       <c r="C495" t="n">
-        <v>48.9218878811016</v>
+        <v>48.9218878824188</v>
       </c>
     </row>
     <row r="496">
@@ -6084,7 +6084,7 @@
         <v>63</v>
       </c>
       <c r="C496" t="n">
-        <v>51.2659242514231</v>
+        <v>51.2659242516829</v>
       </c>
     </row>
     <row r="497">
@@ -6095,7 +6095,7 @@
         <v>64</v>
       </c>
       <c r="C497" t="n">
-        <v>58.8465848127166</v>
+        <v>58.8465848137411</v>
       </c>
     </row>
     <row r="498">
@@ -6106,7 +6106,7 @@
         <v>65</v>
       </c>
       <c r="C498" t="n">
-        <v>56.2983188841899</v>
+        <v>56.2983188849574</v>
       </c>
     </row>
     <row r="499">
@@ -6117,7 +6117,7 @@
         <v>66</v>
       </c>
       <c r="C499" t="n">
-        <v>54.1737415781773</v>
+        <v>54.1737415789501</v>
       </c>
     </row>
     <row r="500">
@@ -6128,7 +6128,7 @@
         <v>67</v>
       </c>
       <c r="C500" t="n">
-        <v>35.5193152108549</v>
+        <v>35.519315211973</v>
       </c>
     </row>
     <row r="501">
@@ -6139,7 +6139,7 @@
         <v>68</v>
       </c>
       <c r="C501" t="n">
-        <v>35.5882798139735</v>
+        <v>35.5882798151024</v>
       </c>
     </row>
     <row r="502">
@@ -6150,7 +6150,7 @@
         <v>69</v>
       </c>
       <c r="C502" t="n">
-        <v>35.2789732190827</v>
+        <v>35.2789732201933</v>
       </c>
     </row>
     <row r="503">
@@ -6161,7 +6161,7 @@
         <v>70</v>
       </c>
       <c r="C503" t="n">
-        <v>60.0117186176304</v>
+        <v>60.0117186186614</v>
       </c>
     </row>
     <row r="504">
@@ -6172,7 +6172,7 @@
         <v>71</v>
       </c>
       <c r="C504" t="n">
-        <v>49.1176843714316</v>
+        <v>49.1176843727482</v>
       </c>
     </row>
     <row r="505">
@@ -6183,7 +6183,7 @@
         <v>72</v>
       </c>
       <c r="C505" t="n">
-        <v>66.7723091461322</v>
+        <v>66.7723091472529</v>
       </c>
     </row>
     <row r="506">
@@ -6194,7 +6194,7 @@
         <v>73</v>
       </c>
       <c r="C506" t="n">
-        <v>43.8732209230596</v>
+        <v>43.8732209248702</v>
       </c>
     </row>
     <row r="507">
@@ -6205,7 +6205,7 @@
         <v>74</v>
       </c>
       <c r="C507" t="n">
-        <v>63.4455369469448</v>
+        <v>63.4455369482125</v>
       </c>
     </row>
     <row r="508">
@@ -6216,7 +6216,7 @@
         <v>75</v>
       </c>
       <c r="C508" t="n">
-        <v>63.4455369469448</v>
+        <v>63.4455369482125</v>
       </c>
     </row>
     <row r="509">
@@ -6227,7 +6227,7 @@
         <v>76</v>
       </c>
       <c r="C509" t="n">
-        <v>63.4328998529269</v>
+        <v>63.4328998542014</v>
       </c>
     </row>
     <row r="510">
@@ -6238,7 +6238,7 @@
         <v>77</v>
       </c>
       <c r="C510" t="n">
-        <v>47.0304311733192</v>
+        <v>47.0304311746589</v>
       </c>
     </row>
     <row r="511">
@@ -6249,7 +6249,7 @@
         <v>78</v>
       </c>
       <c r="C511" t="n">
-        <v>49.8859051268174</v>
+        <v>49.8859051289786</v>
       </c>
     </row>
     <row r="512">
@@ -6260,7 +6260,7 @@
         <v>79</v>
       </c>
       <c r="C512" t="n">
-        <v>34.6108865831234</v>
+        <v>34.6108865845267</v>
       </c>
     </row>
     <row r="513">
@@ -6271,7 +6271,7 @@
         <v>80</v>
       </c>
       <c r="C513" t="n">
-        <v>20.4026322209823</v>
+        <v>20.4026322220442</v>
       </c>
     </row>
     <row r="514">
@@ -6282,7 +6282,7 @@
         <v>81</v>
       </c>
       <c r="C514" t="n">
-        <v>28.6479399386994</v>
+        <v>28.6479399400004</v>
       </c>
     </row>
     <row r="515">
@@ -6293,7 +6293,7 @@
         <v>82</v>
       </c>
       <c r="C515" t="n">
-        <v>55.551387323637</v>
+        <v>55.5513873245304</v>
       </c>
     </row>
     <row r="516">
@@ -6304,7 +6304,7 @@
         <v>83</v>
       </c>
       <c r="C516" t="n">
-        <v>30.854700188392</v>
+        <v>30.8547001897358</v>
       </c>
     </row>
     <row r="517">
@@ -6315,7 +6315,7 @@
         <v>84</v>
       </c>
       <c r="C517" t="n">
-        <v>42.4988357137938</v>
+        <v>42.4988357160293</v>
       </c>
     </row>
     <row r="518">
@@ -6326,7 +6326,7 @@
         <v>85</v>
       </c>
       <c r="C518" t="n">
-        <v>42.4988357137938</v>
+        <v>42.4988357160293</v>
       </c>
     </row>
     <row r="519">
@@ -6337,7 +6337,7 @@
         <v>86</v>
       </c>
       <c r="C519" t="n">
-        <v>53.3686558333718</v>
+        <v>53.368655834291</v>
       </c>
     </row>
     <row r="520">
@@ -6348,7 +6348,7 @@
         <v>87</v>
       </c>
       <c r="C520" t="n">
-        <v>53.4284187052275</v>
+        <v>53.4284187061471</v>
       </c>
     </row>
     <row r="521">
@@ -6359,7 +6359,7 @@
         <v>88</v>
       </c>
       <c r="C521" t="n">
-        <v>53.3686558333718</v>
+        <v>53.368655834291</v>
       </c>
     </row>
     <row r="522">
@@ -6370,7 +6370,7 @@
         <v>89</v>
       </c>
       <c r="C522" t="n">
-        <v>50.3864835107279</v>
+        <v>50.3864835115671</v>
       </c>
     </row>
     <row r="523">
@@ -6381,7 +6381,7 @@
         <v>90</v>
       </c>
       <c r="C523" t="n">
-        <v>49.0922818806332</v>
+        <v>49.0922818819484</v>
       </c>
     </row>
   </sheetData>
